--- a/input/3Var_Quadratic1.xlsx
+++ b/input/3Var_Quadratic1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,19 +470,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1177826787356539</v>
+        <v>0.1365182668771259</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07049936079058972</v>
+        <v>0.05404335324881252</v>
       </c>
       <c r="E2" t="n">
-        <v>1.002489506363789</v>
+        <v>0.9349207946974388</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1649544585694133</v>
+        <v>0.1115985313708465</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1454043806342845</v>
+        <v>0.1248507029016023</v>
       </c>
       <c r="C3" t="n">
         <v>0.125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06634520870758993</v>
+        <v>0.05056847615925721</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7416048150918111</v>
+        <v>0.5664303601829345</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1634202992392709</v>
+        <v>0.1817565215471444</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1061725316237746</v>
+        <v>0.09110264756450406</v>
       </c>
       <c r="C4" t="n">
         <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.107273307051388</v>
+        <v>0.06636779831078646</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4552756382059958</v>
+        <v>0.9869575473089706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1927754192923919</v>
+        <v>0.1136365158770844</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>0.625</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1039362080679284</v>
+        <v>0.1466762465216703</v>
       </c>
       <c r="C5" t="n">
         <v>0.375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1176118687403887</v>
+        <v>0.05115616890403135</v>
       </c>
       <c r="E5" t="n">
-        <v>1.13273968848812</v>
+        <v>1.444269046351016</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1896946896972081</v>
+        <v>0.1835850738583381</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09572428469007663</v>
+        <v>0.08899918171570959</v>
       </c>
       <c r="C6" t="n">
         <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04434786676903479</v>
+        <v>0.1071690076583035</v>
       </c>
       <c r="E6" t="n">
-        <v>2.193360808060635</v>
+        <v>2.100768411385722</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2870656009726829</v>
+        <v>0.2078442261436049</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>1.041666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05307893767010999</v>
+        <v>0.119186355585162</v>
       </c>
       <c r="C7" t="n">
         <v>0.625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1117894942964976</v>
+        <v>0.07527672404570296</v>
       </c>
       <c r="E7" t="n">
-        <v>2.921379250113575</v>
+        <v>2.86493898611256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1761374843447067</v>
+        <v>0.1407157697394351</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>1.25</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07938760097936318</v>
+        <v>0.06772928368261194</v>
       </c>
       <c r="C8" t="n">
         <v>0.75</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07823307815236977</v>
+        <v>0.1048788388064186</v>
       </c>
       <c r="E8" t="n">
-        <v>4.476769650435977</v>
+        <v>4.000359868079203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2904521784297965</v>
+        <v>0.2284867642923301</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>1.458333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1353404988605783</v>
+        <v>0.1062160261683078</v>
       </c>
       <c r="C9" t="n">
         <v>0.875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1001702872828424</v>
+        <v>0.1087541242724804</v>
       </c>
       <c r="E9" t="n">
-        <v>5.384993708626719</v>
+        <v>5.524505578615093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1806208106566493</v>
+        <v>0.2728858687764042</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1391181535083778</v>
+        <v>0.06402386283544759</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07688411334428212</v>
+        <v>0.0586596767604332</v>
       </c>
       <c r="E10" t="n">
-        <v>6.060617222031699</v>
+        <v>6.766487695781114</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1410213742362334</v>
+        <v>0.1626500866502428</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>1.875</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1307625087910919</v>
+        <v>0.1299497928678898</v>
       </c>
       <c r="C11" t="n">
         <v>1.125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08899856695913497</v>
+        <v>0.06485028748140517</v>
       </c>
       <c r="E11" t="n">
-        <v>8.086662275287834</v>
+        <v>8.675073497809572</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2103327440147015</v>
+        <v>0.2918752021692784</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>2.083333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1409361984112273</v>
+        <v>0.07473868575930752</v>
       </c>
       <c r="C12" t="n">
         <v>1.25</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07645706825444881</v>
+        <v>0.1021735439672359</v>
       </c>
       <c r="E12" t="n">
-        <v>9.16120214452363</v>
+        <v>9.48555665684575</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1104446513446104</v>
+        <v>0.2333138275645854</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>2.291666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08328421943233648</v>
+        <v>0.1117873725181505</v>
       </c>
       <c r="C13" t="n">
         <v>1.375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08221764149953656</v>
+        <v>0.04268335332528372</v>
       </c>
       <c r="E13" t="n">
-        <v>12.39369080209144</v>
+        <v>12.15457869340139</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1836681852982042</v>
+        <v>0.2124012219765061</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>2.5</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1261099207670517</v>
+        <v>0.07446976829193898</v>
       </c>
       <c r="C14" t="n">
         <v>1.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1082504708781653</v>
+        <v>0.05292366754830195</v>
       </c>
       <c r="E14" t="n">
-        <v>14.15743834462482</v>
+        <v>14.45914728161581</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2389484052086437</v>
+        <v>0.2839161952245721</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>2.708333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1260407320059217</v>
+        <v>0.1438495047692183</v>
       </c>
       <c r="C15" t="n">
         <v>1.625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06936322715981498</v>
+        <v>0.06685996143557957</v>
       </c>
       <c r="E15" t="n">
-        <v>17.06207900666491</v>
+        <v>17.09257683855258</v>
       </c>
       <c r="F15" t="n">
-        <v>0.160484446090099</v>
+        <v>0.1585764806914964</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>2.916666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1449645951027358</v>
+        <v>0.05285360353264551</v>
       </c>
       <c r="C16" t="n">
         <v>1.75</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08228774374977571</v>
+        <v>0.09769635688230635</v>
       </c>
       <c r="E16" t="n">
-        <v>19.81362752311691</v>
+        <v>18.63954424219725</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1119873671582676</v>
+        <v>0.1566515152712462</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>3.125</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0556851748958333</v>
+        <v>0.1111934940815756</v>
       </c>
       <c r="C17" t="n">
         <v>1.875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07034882466605083</v>
+        <v>0.04069556799543947</v>
       </c>
       <c r="E17" t="n">
-        <v>22.00221999947621</v>
+        <v>22.33000098610195</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2776285443959399</v>
+        <v>0.1533108332550363</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>3.333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05746695846250562</v>
+        <v>0.09473999198192402</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04891447131315356</v>
+        <v>0.06825344008610515</v>
       </c>
       <c r="E18" t="n">
-        <v>24.89758403223207</v>
+        <v>25.0658359208803</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1839326330240447</v>
+        <v>0.2996083116794686</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>3.541666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05782955458674499</v>
+        <v>0.1184745043530376</v>
       </c>
       <c r="C19" t="n">
         <v>2.125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1085594421859626</v>
+        <v>0.1102669161690178</v>
       </c>
       <c r="E19" t="n">
-        <v>28.03988437500623</v>
+        <v>28.34648053463822</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2978360559746398</v>
+        <v>0.2635487885654663</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>3.75</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1118711996075156</v>
+        <v>0.08425008788762295</v>
       </c>
       <c r="C20" t="n">
         <v>2.25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09820691115881613</v>
+        <v>0.04088792244411153</v>
       </c>
       <c r="E20" t="n">
-        <v>31.28784123112995</v>
+        <v>31.40862246031699</v>
       </c>
       <c r="F20" t="n">
-        <v>0.165096842219378</v>
+        <v>0.1151057106430531</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>3.958333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1420190435370922</v>
+        <v>0.1216495419656299</v>
       </c>
       <c r="C21" t="n">
         <v>2.375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04306466883781396</v>
+        <v>0.1141999081587766</v>
       </c>
       <c r="E21" t="n">
-        <v>34.95976013968874</v>
+        <v>35.05154013191337</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1736341754478273</v>
+        <v>0.2254569440987204</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +870,19 @@
         <v>4.166666666666667</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09346940706986907</v>
+        <v>0.1465386368999607</v>
       </c>
       <c r="C22" t="n">
         <v>2.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0822444562891487</v>
+        <v>0.08614570211351587</v>
       </c>
       <c r="E22" t="n">
-        <v>38.72046597494683</v>
+        <v>39.14796019572512</v>
       </c>
       <c r="F22" t="n">
-        <v>0.197125658585091</v>
+        <v>0.1540737825141336</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +890,19 @@
         <v>4.375</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1190674151563527</v>
+        <v>0.0894480097965387</v>
       </c>
       <c r="C23" t="n">
         <v>2.625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08415663124831482</v>
+        <v>0.07813831701174444</v>
       </c>
       <c r="E23" t="n">
-        <v>43.18546337194184</v>
+        <v>42.61843104764468</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1299845646025035</v>
+        <v>0.1609456087870239</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +910,19 @@
         <v>4.583333333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06004398739578475</v>
+        <v>0.1019738746681924</v>
       </c>
       <c r="C24" t="n">
         <v>2.75</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05812872753740123</v>
+        <v>0.05051746437534608</v>
       </c>
       <c r="E24" t="n">
-        <v>47.78369610277358</v>
+        <v>47.23482993671274</v>
       </c>
       <c r="F24" t="n">
-        <v>0.241445747217774</v>
+        <v>0.1478599269718224</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +930,19 @@
         <v>4.791666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1219290552760946</v>
+        <v>0.1024370096685977</v>
       </c>
       <c r="C25" t="n">
         <v>2.875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09213406225251472</v>
+        <v>0.05156401775156637</v>
       </c>
       <c r="E25" t="n">
-        <v>51.75414104132447</v>
+        <v>51.21757891573107</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1099318522000167</v>
+        <v>0.2542681350865723</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +950,19 @@
         <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1412559154290207</v>
+        <v>0.07476598919305649</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07651819575438007</v>
+        <v>0.05768896778424247</v>
       </c>
       <c r="E26" t="n">
-        <v>55.45012241465969</v>
+        <v>56.20089142237676</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1786977468537415</v>
+        <v>0.1068932603100829</v>
       </c>
     </row>
   </sheetData>
